--- a/Disease_UKR_National.xlsx
+++ b/Disease_UKR_National.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Ukraine_Displacement\Ukraine_Displacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3419779C-1206-45ED-91D0-867B68D59CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A3103-5CA2-438D-B063-36C87E257745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="9105" windowWidth="7500" windowHeight="6000" xr2:uid="{18B9F9EB-996F-4521-A977-EAA48887E5FE}"/>
+    <workbookView xWindow="20175" yWindow="9480" windowWidth="7500" windowHeight="6000" xr2:uid="{18B9F9EB-996F-4521-A977-EAA48887E5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,19 +155,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -197,12 +191,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -535,7 +529,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Disease_UKR_National.xlsx
+++ b/Disease_UKR_National.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Ukraine_Displacement\Ukraine_Displacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A3103-5CA2-438D-B063-36C87E257745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80C8DE-7758-475A-AAC1-857BE4316215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20175" yWindow="9480" windowWidth="7500" windowHeight="6000" xr2:uid="{18B9F9EB-996F-4521-A977-EAA48887E5FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18B9F9EB-996F-4521-A977-EAA48887E5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>tc={0E50055A-DA59-4DB9-A28E-D5BC306C424D}</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{0E50055A-DA59-4DB9-A28E-D5BC306C424D}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{0E50055A-DA59-4DB9-A28E-D5BC306C424D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>TB</t>
   </si>
@@ -100,30 +100,15 @@
     <t>HIV_T</t>
   </si>
   <si>
-    <t>Tuberculosis of respiratory organs, not confirmed bacteriologically and histologically</t>
-  </si>
-  <si>
-    <t>uicd_name</t>
-  </si>
-  <si>
-    <t>Disease caused by human immunodeficiency virus (HIV)</t>
-  </si>
-  <si>
     <t>Diabetes</t>
   </si>
   <si>
     <t>https://idf.org/our-network/regions-members/europe/members/164-ukraine.html</t>
   </si>
   <si>
-    <t>Neoplasm</t>
-  </si>
-  <si>
     <t>Cancer</t>
   </si>
   <si>
-    <t>class_name</t>
-  </si>
-  <si>
     <t>https://gco.iarc.fr/today/data/factsheets/populations/804-ukraine-fact-sheets.pdf</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>Cardiovascular disease</t>
   </si>
   <si>
-    <t>Diseases of the circulatory system</t>
-  </si>
-  <si>
     <t>Second source</t>
   </si>
   <si>
@@ -146,6 +128,12 @@
   </si>
   <si>
     <t>https://heart.bmj.com/content/102/1/63</t>
+  </si>
+  <si>
+    <t>search_name</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
   </si>
 </sst>
 </file>
@@ -518,7 +506,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I8" dT="2022-03-04T21:07:30.92" personId="{6C56F859-A50C-4F4B-A6E2-7C8364B89A28}" id="{0E50055A-DA59-4DB9-A28E-D5BC306C424D}">
+  <threadedComment ref="H8" dT="2022-03-04T21:07:30.92" personId="{6C56F859-A50C-4F4B-A6E2-7C8364B89A28}" id="{0E50055A-DA59-4DB9-A28E-D5BC306C424D}">
     <text>for the probability of death</text>
   </threadedComment>
 </ThreadedComments>
@@ -526,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53856836-C682-4EB6-A0C6-AECE6478D8E8}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D21" sqref="D21:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,15 +525,14 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -556,28 +543,25 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -588,20 +572,20 @@
         <f>32000+17533</f>
         <v>49533</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>2020</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G2" s="1">
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -612,20 +596,20 @@
         <f>13000+6452</f>
         <v>19452</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
         <v>2018</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="1">
         <v>44624</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -635,20 +619,20 @@
       <c r="C4">
         <v>260000</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>2020</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="1">
         <v>44624</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -659,72 +643,72 @@
         <f>146488</f>
         <v>146488</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>2020</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
         <v>44624</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2325000</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>2022</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
         <v>44624</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <f>405693</f>
         <v>405693</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>2020</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1">
-        <v>44624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <f>ROUND(403114/0.035657251296841,0)</f>
@@ -733,31 +717,31 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>2020</v>
       </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
         <v>44624</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1">
         <v>44624</v>
       </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I9" s="1"/>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{A7043275-A81F-424B-9F2C-DEA261161A56}"/>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{A7043275-A81F-424B-9F2C-DEA261161A56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Disease_UKR_National.xlsx
+++ b/Disease_UKR_National.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Ukraine_Displacement\Ukraine_Displacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80C8DE-7758-475A-AAC1-857BE4316215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AE4A5-262A-410A-BC45-F1D4D571FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18B9F9EB-996F-4521-A977-EAA48887E5FE}"/>
+    <workbookView xWindow="17760" yWindow="3960" windowWidth="7500" windowHeight="6000" xr2:uid="{18B9F9EB-996F-4521-A977-EAA48887E5FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>tc={0E50055A-DA59-4DB9-A28E-D5BC306C424D}</author>
   </authors>
   <commentList>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{0E50055A-DA59-4DB9-A28E-D5BC306C424D}">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{0E50055A-DA59-4DB9-A28E-D5BC306C424D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>TB</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>LB_Cases</t>
+  </si>
+  <si>
+    <t>UB_Cases</t>
+  </si>
+  <si>
+    <t>https://www.euro.who.int/__data/assets/pdf_file/0007/308473/Prevention-control-care-TBC-Ukraine.pdf</t>
+  </si>
+  <si>
+    <t>https://www.euro.who.int/__data/assets/pdf_file/0007/274633/Tuberculosis-country-work-summary-Ukraine-en.pdf</t>
+  </si>
+  <si>
+    <t>https://diabetesatlas.org/idfawp/resource-files/2021/07/IDF_Atlas_10th_Edition_2021.pdf</t>
   </si>
 </sst>
 </file>
@@ -506,7 +521,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H8" dT="2022-03-04T21:07:30.92" personId="{6C56F859-A50C-4F4B-A6E2-7C8364B89A28}" id="{0E50055A-DA59-4DB9-A28E-D5BC306C424D}">
+  <threadedComment ref="J8" dT="2022-03-04T21:07:30.92" personId="{6C56F859-A50C-4F4B-A6E2-7C8364B89A28}" id="{0E50055A-DA59-4DB9-A28E-D5BC306C424D}">
     <text>for the probability of death</text>
   </threadedComment>
 </ThreadedComments>
@@ -514,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53856836-C682-4EB6-A0C6-AECE6478D8E8}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D27"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,14 +540,15 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -543,25 +559,31 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -572,20 +594,31 @@
         <f>32000+17533</f>
         <v>49533</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <f>ROUND(39000*$C$2/44000,0)</f>
+        <v>43904</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(50000*$C$2/44000,0)</f>
+        <v>56288</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>2020</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>44624</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -596,20 +629,31 @@
         <f>13000+6452</f>
         <v>19452</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <f>ROUND(C3*3.9/4.1,0)</f>
+        <v>18503</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(C3*4.3/4.1,0)</f>
+        <v>20401</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2018</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>44624</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -619,20 +663,26 @@
       <c r="C4">
         <v>260000</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>210000</v>
+      </c>
+      <c r="E4">
+        <v>330000</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>2020</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>44624</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -643,20 +693,26 @@
         <f>146488</f>
         <v>146488</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>103206</v>
+      </c>
+      <c r="E5">
+        <v>200443</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>2020</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>44624</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -666,20 +722,29 @@
       <c r="C6">
         <v>2325000</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>2101700</v>
+      </c>
+      <c r="E6">
+        <v>2492600</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>2022</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>44624</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -690,20 +755,28 @@
         <f>405693</f>
         <v>405693</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <f>405693</f>
+        <v>405693</v>
+      </c>
+      <c r="E7">
+        <f>405693</f>
+        <v>405693</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>2020</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>44624</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -714,37 +787,47 @@
         <f>ROUND(403114/0.035657251296841,0)</f>
         <v>11305246</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>10382816</v>
+      </c>
+      <c r="E8">
+        <v>12317289</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>2020</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="1">
-        <v>44624</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I8" s="1">
         <v>44624</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44624</v>
+      </c>
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{A7043275-A81F-424B-9F2C-DEA261161A56}"/>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{A7043275-A81F-424B-9F2C-DEA261161A56}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{D3B8842E-B429-447E-8C1B-8D49C527A726}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{A065E223-C495-4A09-88DC-82A3B8C5BF01}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{1FA0F9DD-303E-454D-B23E-DB34E0FEBB3F}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{867C97DC-52CB-4570-AFCE-992A7831122E}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{8300167A-C61E-4FFC-A2E0-3ED5DC20D5BD}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{8CBAD02D-45CC-4058-969F-8278C8EFE894}"/>
+    <hyperlink ref="J6" r:id="rId8" xr:uid="{8AAA8049-6092-4258-B47F-696867E9F0CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>